--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="37140" yWindow="580" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3780" yWindow="180" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="citations" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="114">
   <si>
     <t>62-T6-02-063480</t>
   </si>
@@ -322,14 +323,53 @@
     <t>defendant</t>
   </si>
   <si>
-    <t>Source: Minnesota Courts</t>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>citations</t>
+  </si>
+  <si>
+    <t>Source: Minnesota Judicial Branch</t>
+  </si>
+  <si>
+    <t>Minnesota Judicial Branch</t>
+  </si>
+  <si>
+    <t>Philando Castile's vehicle citations over time</t>
+  </si>
+  <si>
+    <t>Citation number</t>
+  </si>
+  <si>
+    <t>Defendant name (CASTILE, PHILANDO DIVALL)</t>
+  </si>
+  <si>
+    <t>Date filed</t>
+  </si>
+  <si>
+    <t>Type of case</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Court ruling</t>
+  </si>
+  <si>
+    <t>Case number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,6 +387,30 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -366,16 +430,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -708,7 +781,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2196,22 +2269,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1">
+      <c r="A6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
